--- a/var_info/indv_panel_var_info/GIP_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/GIP_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F24A70-FDCF-1E4B-96EC-DC166FFF0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5942EB-C0DB-5A4B-AF4E-F0E53BCEA908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
   <si>
     <t>ord</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1050,7 +1053,7 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1094,10 +1097,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1128,8 +1134,11 @@
       <c r="J2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1160,8 +1169,11 @@
       <c r="J3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1191,6 +1203,9 @@
       </c>
       <c r="J4">
         <v>11</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1200,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1212,7 +1227,7 @@
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1256,10 +1271,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1275,11 +1293,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1295,11 +1313,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1315,7 +1333,7 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1326,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1337,7 +1355,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1381,10 +1399,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1400,11 +1421,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1420,11 +1441,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1440,11 +1461,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1460,11 +1481,11 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1480,11 +1501,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1521,7 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1512,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1525,7 +1546,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1569,10 +1590,13 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1588,11 +1612,11 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1608,11 +1632,11 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1628,11 +1652,11 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17">
+    <row r="5" spans="1:16" ht="17">
       <c r="F5" s="1"/>
     </row>
   </sheetData>
@@ -1642,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1653,7 +1677,7 @@
     <col min="2" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1697,6 +1721,9 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
     </row>
